--- a/biology/Médecine/Ernest_Nyssens/Ernest_Nyssens.xlsx
+++ b/biology/Médecine/Ernest_Nyssens/Ernest_Nyssens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Nyssens (1868-1956) est un médecin et théosophe belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin, Ernest Nyssens, né à Chimay le 10 juillet 1868, est un pionnier dans le secteur de l'homéopathie et de la thérapie Kneipp (nl). Entre 1910 et 1915, il est actif dans sa maison thérapeutique du domaine Ter Nood à Overijse. 
 Nyssens se marie en premières noces en 1899 avec Valérie Verleysen et en deuxièmes noces, en 1935 avec Berthe Deseck, qui deviendra secrétaire générale de la Société théosophique belge. 
